--- a/document/31条指令操作时间表.xlsx
+++ b/document/31条指令操作时间表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\cpu31\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9549762F-AFA9-4B03-8D96-680139AC8BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D07A1178-57BE-4047-8E44-FDF06B86B0C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{7CAB809C-24DC-4464-89F1-2B336DD29E79}"/>
   </bookViews>
@@ -514,7 +514,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -531,9 +531,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -856,7 +853,7 @@
       <pane xSplit="11" ySplit="16" topLeftCell="L17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
-      <selection pane="bottomRight" activeCell="P9" sqref="P9"/>
+      <selection pane="bottomRight" activeCell="H6" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1055,7 +1052,7 @@
       <c r="S20" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="T20" s="6" t="s">
+      <c r="T20" s="3" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1587,7 +1584,7 @@
         <v>60</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>62</v>
@@ -1649,7 +1646,7 @@
         <v>60</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>62</v>
@@ -1897,7 +1894,7 @@
         <v>60</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="L34" s="2" t="s">
         <v>62</v>
@@ -1959,7 +1956,7 @@
         <v>60</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="L35" s="2" t="s">
         <v>62</v>
@@ -2021,7 +2018,7 @@
         <v>60</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="L36" s="2" t="s">
         <v>62</v>
@@ -2703,7 +2700,7 @@
         <v>60</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="L47" s="2" t="s">
         <v>62</v>
@@ -2765,7 +2762,7 @@
         <v>60</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="L48" s="2" t="s">
         <v>62</v>

--- a/document/31条指令操作时间表.xlsx
+++ b/document/31条指令操作时间表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\cpu31\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D07A1178-57BE-4047-8E44-FDF06B86B0C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D1C4D4F-9D30-406E-8533-3E210653AB39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{7CAB809C-24DC-4464-89F1-2B336DD29E79}"/>
   </bookViews>
@@ -853,7 +853,7 @@
       <pane xSplit="11" ySplit="16" topLeftCell="L17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
-      <selection pane="bottomRight" activeCell="H6" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="G3" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2700,7 +2700,7 @@
         <v>60</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="L47" s="2" t="s">
         <v>62</v>
@@ -2762,7 +2762,7 @@
         <v>60</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="L48" s="2" t="s">
         <v>62</v>

--- a/document/31条指令操作时间表.xlsx
+++ b/document/31条指令操作时间表.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\cpu31\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D1C4D4F-9D30-406E-8533-3E210653AB39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76029C97-E021-4FCA-A4BC-E1651EED22E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{7CAB809C-24DC-4464-89F1-2B336DD29E79}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" activeTab="1" xr2:uid="{7CAB809C-24DC-4464-89F1-2B336DD29E79}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="252">
   <si>
     <t>cpu指令集</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -435,6 +436,459 @@
   <si>
     <t>M6</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MIPS 指令集(共31条）</t>
+  </si>
+  <si>
+    <t>助记符</t>
+  </si>
+  <si>
+    <t>指令格式</t>
+  </si>
+  <si>
+    <t>示例</t>
+  </si>
+  <si>
+    <t>示例含义</t>
+  </si>
+  <si>
+    <t>操作及其解释</t>
+  </si>
+  <si>
+    <t>Bit #</t>
+  </si>
+  <si>
+    <t>31..26</t>
+  </si>
+  <si>
+    <t>25..21</t>
+  </si>
+  <si>
+    <t>20..16</t>
+  </si>
+  <si>
+    <t>15..11</t>
+  </si>
+  <si>
+    <t>10..6</t>
+  </si>
+  <si>
+    <t>5..0</t>
+  </si>
+  <si>
+    <t>R-type</t>
+  </si>
+  <si>
+    <t>op</t>
+  </si>
+  <si>
+    <t>rs</t>
+  </si>
+  <si>
+    <t>rt</t>
+  </si>
+  <si>
+    <t>rd</t>
+  </si>
+  <si>
+    <t>shamt</t>
+  </si>
+  <si>
+    <t>func</t>
+  </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t> add $1,$2,$3</t>
+  </si>
+  <si>
+    <t> $1=$2+$3</t>
+  </si>
+  <si>
+    <t> rd &lt;- rs + rt   ；其中rs＝$2，rt=$3, rd=$1</t>
+  </si>
+  <si>
+    <t>addu</t>
+  </si>
+  <si>
+    <t> addu $1,$2,$3</t>
+  </si>
+  <si>
+    <t> rd &lt;- rs + rt   ；其中rs＝$2，rt=$3, rd=$1,无符号数</t>
+  </si>
+  <si>
+    <t>sub</t>
+  </si>
+  <si>
+    <t> sub $1,$2,$3</t>
+  </si>
+  <si>
+    <t> $1=$2-$3</t>
+  </si>
+  <si>
+    <t> rd &lt;- rs - rt   ；其中rs＝$2，rt=$3, rd=$1</t>
+  </si>
+  <si>
+    <t>subu</t>
+  </si>
+  <si>
+    <t> subu $1,$2,$3</t>
+  </si>
+  <si>
+    <t> rd &lt;- rs - rt   ；其中rs＝$2，rt=$3, rd=$1,无符号数</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t> and $1,$2,$3</t>
+  </si>
+  <si>
+    <t> $1=$2 &amp; $3</t>
+  </si>
+  <si>
+    <t> rd &lt;- rs &amp; rt   ；其中rs＝$2，rt=$3, rd=$1</t>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <t> or $1,$2,$3</t>
+  </si>
+  <si>
+    <t> $1=$2 | $3</t>
+  </si>
+  <si>
+    <t> rd &lt;- rs | rt   ；其中rs＝$2，rt=$3, rd=$1</t>
+  </si>
+  <si>
+    <t>xor</t>
+  </si>
+  <si>
+    <t> xor $1,$2,$3</t>
+  </si>
+  <si>
+    <t> $1=$2 ^ $3</t>
+  </si>
+  <si>
+    <t> rd &lt;- rs xor rt   ；其中rs＝$2，rt=$3, rd=$1(异或）</t>
+  </si>
+  <si>
+    <t>nor</t>
+  </si>
+  <si>
+    <t> nor $1,$2,$3</t>
+  </si>
+  <si>
+    <t> $1=~($2 | $3)</t>
+  </si>
+  <si>
+    <t> rd &lt;- not(rs | rt)   ；其中rs＝$2，rt=$3, rd=$1(或非）</t>
+  </si>
+  <si>
+    <t>slt</t>
+  </si>
+  <si>
+    <t> slt $1,$2,$3</t>
+  </si>
+  <si>
+    <t> if($2&lt;$3) </t>
+  </si>
+  <si>
+    <t>  $1=1 else</t>
+  </si>
+  <si>
+    <t>   $1=0</t>
+  </si>
+  <si>
+    <t> if (rs &lt; rt) rd=1 else rd=0 ；其中rs＝$2，rt=$3, rd=$1</t>
+  </si>
+  <si>
+    <t>sltu</t>
+  </si>
+  <si>
+    <t> sltu $1,$2,$3</t>
+  </si>
+  <si>
+    <t>  (无符号数）</t>
+  </si>
+  <si>
+    <t>sll</t>
+  </si>
+  <si>
+    <t> sll $1,$2,10</t>
+  </si>
+  <si>
+    <t> $1=$2&lt;&lt;10</t>
+  </si>
+  <si>
+    <t> rd &lt;- rt &lt;&lt; shamt  ；shamt存放移位的位数，</t>
+  </si>
+  <si>
+    <t>  也就是指令中的立即数，其中rt=$2, rd=$1</t>
+  </si>
+  <si>
+    <t>srl</t>
+  </si>
+  <si>
+    <t> srl $1,$2,10</t>
+  </si>
+  <si>
+    <t> $1=$2&gt;&gt;10</t>
+  </si>
+  <si>
+    <t> rd &lt;- rt &gt;&gt; shamt ；(logical) ，其中rt=$2, rd=$1</t>
+  </si>
+  <si>
+    <t>sra</t>
+  </si>
+  <si>
+    <t> sra $1,$2,10</t>
+  </si>
+  <si>
+    <t> rd &lt;- rt &gt;&gt; shamt  ；(arithmetic) 注意符号位保留</t>
+  </si>
+  <si>
+    <t> 其中rt=$2, rd=$1</t>
+  </si>
+  <si>
+    <t>sllv</t>
+  </si>
+  <si>
+    <t> sllv $1,$2,$3</t>
+  </si>
+  <si>
+    <t> $1=$2&lt;&lt;$3</t>
+  </si>
+  <si>
+    <t> rd &lt;- rt &lt;&lt; rs  ；其中rs＝$3，rt=$2, rd=$1</t>
+  </si>
+  <si>
+    <t>srlv</t>
+  </si>
+  <si>
+    <t> srlv $1,$2,$3</t>
+  </si>
+  <si>
+    <t> $1=$2&gt;&gt;$3</t>
+  </si>
+  <si>
+    <t> rd &lt;- rt &gt;&gt; rs  ；(logical)其中rs＝$3，rt=$2, rd=$1</t>
+  </si>
+  <si>
+    <t>srav</t>
+  </si>
+  <si>
+    <t> srav $1,$2,$3</t>
+  </si>
+  <si>
+    <t> rd &lt;- rt &gt;&gt; rs  ；(arithmetic) 注意符号位保留</t>
+  </si>
+  <si>
+    <t> 其中rs＝$3，rt=$2, rd=$1</t>
+  </si>
+  <si>
+    <t>jr</t>
+  </si>
+  <si>
+    <t> jr $31</t>
+  </si>
+  <si>
+    <t> goto $31</t>
+  </si>
+  <si>
+    <t> PC &lt;- rs</t>
+  </si>
+  <si>
+    <t>I-type</t>
+  </si>
+  <si>
+    <t>immediate</t>
+  </si>
+  <si>
+    <t>addi</t>
+  </si>
+  <si>
+    <t> addi $1,$2,100</t>
+  </si>
+  <si>
+    <t> $1=$2+100</t>
+  </si>
+  <si>
+    <t> rt &lt;- rs + (sign-extend)immediate ；其中rt=$1,rs=$2</t>
+  </si>
+  <si>
+    <t>addiu</t>
+  </si>
+  <si>
+    <t>addiu $1,$2,100</t>
+  </si>
+  <si>
+    <t> rt &lt;- rs + (zero-extend)immediate ；其中rt=$1,rs=$2</t>
+  </si>
+  <si>
+    <t>andi</t>
+  </si>
+  <si>
+    <t> andi $1,$2,10</t>
+  </si>
+  <si>
+    <t> $1=$2 &amp; 10</t>
+  </si>
+  <si>
+    <t> rt &lt;- rs &amp; (zero-extend)immediate ；其中rt=$1,rs=$2</t>
+  </si>
+  <si>
+    <t>ori</t>
+  </si>
+  <si>
+    <t> $1=$2 | 10</t>
+  </si>
+  <si>
+    <t> rt &lt;- rs | (zero-extend)immediate ；其中rt=$1,rs=$2</t>
+  </si>
+  <si>
+    <t>xori</t>
+  </si>
+  <si>
+    <t> $1=$2 ^ 10</t>
+  </si>
+  <si>
+    <t> rt &lt;- rs xor (zero-extend)immediate ；其中rt=$1,rs=$2</t>
+  </si>
+  <si>
+    <t>lui</t>
+  </si>
+  <si>
+    <t> lui $1,100</t>
+  </si>
+  <si>
+    <t> $1=100*65536</t>
+  </si>
+  <si>
+    <t> rt &lt;- immediate*65536 ；将16位立即数放到目标寄存器高16</t>
+  </si>
+  <si>
+    <t>         位，目标寄存器的低16位填0</t>
+  </si>
+  <si>
+    <t>lw</t>
+  </si>
+  <si>
+    <t> lw $1,10($2)</t>
+  </si>
+  <si>
+    <t> $1=memory[$2</t>
+  </si>
+  <si>
+    <t> +10]</t>
+  </si>
+  <si>
+    <t> rt &lt;- memory[rs + (sign-extend)immediate] ；rt=$1,rs=$2</t>
+  </si>
+  <si>
+    <t>sw</t>
+  </si>
+  <si>
+    <t> sw $1,10($2)</t>
+  </si>
+  <si>
+    <t> memory[$2+10]</t>
+  </si>
+  <si>
+    <t> =$1</t>
+  </si>
+  <si>
+    <t> memory[rs + (sign-extend)immediate] &lt;- rt ；rt=$1,rs=$2</t>
+  </si>
+  <si>
+    <t>beq</t>
+  </si>
+  <si>
+    <t> beq $1,$2,10</t>
+  </si>
+  <si>
+    <t> if($1==$2) </t>
+  </si>
+  <si>
+    <t> goto PC+4+40</t>
+  </si>
+  <si>
+    <t> if (rs == rt) PC &lt;- PC+4 + (sign-extend)immediate&lt;&lt;2 </t>
+  </si>
+  <si>
+    <t>bne</t>
+  </si>
+  <si>
+    <t> bne $1,$2,10</t>
+  </si>
+  <si>
+    <t> if($1!=$2)</t>
+  </si>
+  <si>
+    <t> if (rs != rt) PC &lt;- PC+4 + (sign-extend)immediate&lt;&lt;2 </t>
+  </si>
+  <si>
+    <t>slti</t>
+  </si>
+  <si>
+    <t> slti $1,$2,10</t>
+  </si>
+  <si>
+    <t> if($2&lt;10) </t>
+  </si>
+  <si>
+    <t> if (rs &lt;(sign-extend)immediate) rt=1 else rt=0 ；</t>
+  </si>
+  <si>
+    <t>   其中rs＝$2，rt=$1</t>
+  </si>
+  <si>
+    <t>sltiu</t>
+  </si>
+  <si>
+    <t> sltiu $1,$2,10</t>
+  </si>
+  <si>
+    <t> if (rs &lt;(zero-extend)immediate) rt=1 else rt=0 ；</t>
+  </si>
+  <si>
+    <t>  其中rs＝$2，rt=$1</t>
+  </si>
+  <si>
+    <t>J-type</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t> j 10000</t>
+  </si>
+  <si>
+    <t> goto 10000</t>
+  </si>
+  <si>
+    <t> PC &lt;- (PC+4)[31..28],address,0,0   ；address=10000/4</t>
+  </si>
+  <si>
+    <t>jal</t>
+  </si>
+  <si>
+    <t> jal 10000</t>
+  </si>
+  <si>
+    <t> $31&lt;-PC+4;</t>
+  </si>
+  <si>
+    <t> $31&lt;-PC+4；PC &lt;- (PC+4)[31..28],address,0,0</t>
+  </si>
+  <si>
+    <t>   ；address=10000/4</t>
   </si>
 </sst>
 </file>
@@ -849,18 +1303,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D1E9F4E-F59F-4F12-8152-A77F37B0468B}">
   <dimension ref="A2:T51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="11" ySplit="16" topLeftCell="L17" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
-      <selection pane="bottomRight" activeCell="G3" sqref="A1:XFD1048576"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A53" sqref="A53:J106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="32" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="59.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="32" width="7.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2700,7 +3168,7 @@
         <v>60</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="L47" s="2" t="s">
         <v>62</v>
@@ -2762,7 +3230,7 @@
         <v>60</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="L48" s="2" t="s">
         <v>62</v>
@@ -2976,6 +3444,1123 @@
       </c>
       <c r="T51" s="2" t="s">
         <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CED34C3-CDE4-49EE-8A91-448A4912C472}">
+  <dimension ref="A1:J54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="58.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>100000</v>
+      </c>
+      <c r="H5" t="s">
+        <v>122</v>
+      </c>
+      <c r="I5" t="s">
+        <v>123</v>
+      </c>
+      <c r="J5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>100001</v>
+      </c>
+      <c r="H6" t="s">
+        <v>126</v>
+      </c>
+      <c r="I6" t="s">
+        <v>123</v>
+      </c>
+      <c r="J6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" t="s">
+        <v>117</v>
+      </c>
+      <c r="E7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>100010</v>
+      </c>
+      <c r="H7" t="s">
+        <v>129</v>
+      </c>
+      <c r="I7" t="s">
+        <v>130</v>
+      </c>
+      <c r="J7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" t="s">
+        <v>117</v>
+      </c>
+      <c r="E8" t="s">
+        <v>118</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>100011</v>
+      </c>
+      <c r="H8" t="s">
+        <v>133</v>
+      </c>
+      <c r="I8" t="s">
+        <v>130</v>
+      </c>
+      <c r="J8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E9" t="s">
+        <v>118</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>100100</v>
+      </c>
+      <c r="H9" t="s">
+        <v>136</v>
+      </c>
+      <c r="I9" t="s">
+        <v>137</v>
+      </c>
+      <c r="J9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" t="s">
+        <v>118</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>100101</v>
+      </c>
+      <c r="H10" t="s">
+        <v>140</v>
+      </c>
+      <c r="I10" t="s">
+        <v>141</v>
+      </c>
+      <c r="J10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" t="s">
+        <v>117</v>
+      </c>
+      <c r="E11" t="s">
+        <v>118</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>100110</v>
+      </c>
+      <c r="H11" t="s">
+        <v>144</v>
+      </c>
+      <c r="I11" t="s">
+        <v>145</v>
+      </c>
+      <c r="J11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>147</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" t="s">
+        <v>117</v>
+      </c>
+      <c r="E12" t="s">
+        <v>118</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>100111</v>
+      </c>
+      <c r="H12" t="s">
+        <v>148</v>
+      </c>
+      <c r="I12" t="s">
+        <v>149</v>
+      </c>
+      <c r="J12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E13" t="s">
+        <v>118</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>101010</v>
+      </c>
+      <c r="H13" t="s">
+        <v>152</v>
+      </c>
+      <c r="I13" t="s">
+        <v>153</v>
+      </c>
+      <c r="J13" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I15" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>157</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D16" t="s">
+        <v>117</v>
+      </c>
+      <c r="E16" t="s">
+        <v>118</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>101011</v>
+      </c>
+      <c r="H16" t="s">
+        <v>158</v>
+      </c>
+      <c r="I16" t="s">
+        <v>153</v>
+      </c>
+      <c r="J16" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I17" t="s">
+        <v>154</v>
+      </c>
+      <c r="J17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I18" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>160</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>117</v>
+      </c>
+      <c r="E19" t="s">
+        <v>118</v>
+      </c>
+      <c r="F19" t="s">
+        <v>119</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19" t="s">
+        <v>161</v>
+      </c>
+      <c r="I19" t="s">
+        <v>162</v>
+      </c>
+      <c r="J19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J20" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>165</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>117</v>
+      </c>
+      <c r="E21" t="s">
+        <v>118</v>
+      </c>
+      <c r="F21" t="s">
+        <v>119</v>
+      </c>
+      <c r="G21">
+        <v>10</v>
+      </c>
+      <c r="H21" t="s">
+        <v>166</v>
+      </c>
+      <c r="I21" t="s">
+        <v>167</v>
+      </c>
+      <c r="J21" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>169</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>117</v>
+      </c>
+      <c r="E22" t="s">
+        <v>118</v>
+      </c>
+      <c r="F22" t="s">
+        <v>119</v>
+      </c>
+      <c r="G22">
+        <v>11</v>
+      </c>
+      <c r="H22" t="s">
+        <v>170</v>
+      </c>
+      <c r="I22" t="s">
+        <v>167</v>
+      </c>
+      <c r="J22" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J23" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>173</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>116</v>
+      </c>
+      <c r="D24" t="s">
+        <v>117</v>
+      </c>
+      <c r="E24" t="s">
+        <v>118</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>100</v>
+      </c>
+      <c r="H24" t="s">
+        <v>174</v>
+      </c>
+      <c r="I24" t="s">
+        <v>175</v>
+      </c>
+      <c r="J24" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>177</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>116</v>
+      </c>
+      <c r="D25" t="s">
+        <v>117</v>
+      </c>
+      <c r="E25" t="s">
+        <v>118</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>110</v>
+      </c>
+      <c r="H25" t="s">
+        <v>178</v>
+      </c>
+      <c r="I25" t="s">
+        <v>179</v>
+      </c>
+      <c r="J25" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>181</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>116</v>
+      </c>
+      <c r="D26" t="s">
+        <v>117</v>
+      </c>
+      <c r="E26" t="s">
+        <v>118</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>111</v>
+      </c>
+      <c r="H26" t="s">
+        <v>182</v>
+      </c>
+      <c r="I26" t="s">
+        <v>179</v>
+      </c>
+      <c r="J26" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J27" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>185</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>116</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>1000</v>
+      </c>
+      <c r="H28" t="s">
+        <v>186</v>
+      </c>
+      <c r="I28" t="s">
+        <v>187</v>
+      </c>
+      <c r="J28" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>189</v>
+      </c>
+      <c r="B29" t="s">
+        <v>115</v>
+      </c>
+      <c r="C29" t="s">
+        <v>116</v>
+      </c>
+      <c r="D29" t="s">
+        <v>117</v>
+      </c>
+      <c r="E29" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>191</v>
+      </c>
+      <c r="B30">
+        <v>1000</v>
+      </c>
+      <c r="C30" t="s">
+        <v>116</v>
+      </c>
+      <c r="D30" t="s">
+        <v>117</v>
+      </c>
+      <c r="E30" t="s">
+        <v>190</v>
+      </c>
+      <c r="H30" t="s">
+        <v>192</v>
+      </c>
+      <c r="I30" t="s">
+        <v>193</v>
+      </c>
+      <c r="J30" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>195</v>
+      </c>
+      <c r="B31">
+        <v>1001</v>
+      </c>
+      <c r="C31" t="s">
+        <v>116</v>
+      </c>
+      <c r="D31" t="s">
+        <v>117</v>
+      </c>
+      <c r="E31" t="s">
+        <v>190</v>
+      </c>
+      <c r="H31" t="s">
+        <v>196</v>
+      </c>
+      <c r="I31" t="s">
+        <v>193</v>
+      </c>
+      <c r="J31" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>198</v>
+      </c>
+      <c r="B32">
+        <v>1100</v>
+      </c>
+      <c r="C32" t="s">
+        <v>116</v>
+      </c>
+      <c r="D32" t="s">
+        <v>117</v>
+      </c>
+      <c r="E32" t="s">
+        <v>190</v>
+      </c>
+      <c r="H32" t="s">
+        <v>199</v>
+      </c>
+      <c r="I32" t="s">
+        <v>200</v>
+      </c>
+      <c r="J32" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>202</v>
+      </c>
+      <c r="B33">
+        <v>1101</v>
+      </c>
+      <c r="C33" t="s">
+        <v>116</v>
+      </c>
+      <c r="D33" t="s">
+        <v>117</v>
+      </c>
+      <c r="E33" t="s">
+        <v>190</v>
+      </c>
+      <c r="H33" t="s">
+        <v>199</v>
+      </c>
+      <c r="I33" t="s">
+        <v>203</v>
+      </c>
+      <c r="J33" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>205</v>
+      </c>
+      <c r="B34">
+        <v>1110</v>
+      </c>
+      <c r="C34" t="s">
+        <v>116</v>
+      </c>
+      <c r="D34" t="s">
+        <v>117</v>
+      </c>
+      <c r="E34" t="s">
+        <v>190</v>
+      </c>
+      <c r="H34" t="s">
+        <v>199</v>
+      </c>
+      <c r="I34" t="s">
+        <v>206</v>
+      </c>
+      <c r="J34" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>208</v>
+      </c>
+      <c r="B35">
+        <v>1111</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35" t="s">
+        <v>117</v>
+      </c>
+      <c r="E35" t="s">
+        <v>190</v>
+      </c>
+      <c r="H35" t="s">
+        <v>209</v>
+      </c>
+      <c r="I35" t="s">
+        <v>210</v>
+      </c>
+      <c r="J35" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J36" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>213</v>
+      </c>
+      <c r="B37">
+        <v>100011</v>
+      </c>
+      <c r="C37" t="s">
+        <v>116</v>
+      </c>
+      <c r="D37" t="s">
+        <v>117</v>
+      </c>
+      <c r="E37" t="s">
+        <v>190</v>
+      </c>
+      <c r="H37" t="s">
+        <v>214</v>
+      </c>
+      <c r="I37" t="s">
+        <v>215</v>
+      </c>
+      <c r="J37" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I38" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>218</v>
+      </c>
+      <c r="B39">
+        <v>101011</v>
+      </c>
+      <c r="C39" t="s">
+        <v>116</v>
+      </c>
+      <c r="D39" t="s">
+        <v>117</v>
+      </c>
+      <c r="E39" t="s">
+        <v>190</v>
+      </c>
+      <c r="H39" t="s">
+        <v>219</v>
+      </c>
+      <c r="I39" t="s">
+        <v>220</v>
+      </c>
+      <c r="J39" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I40" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>223</v>
+      </c>
+      <c r="B41">
+        <v>100</v>
+      </c>
+      <c r="C41" t="s">
+        <v>116</v>
+      </c>
+      <c r="D41" t="s">
+        <v>117</v>
+      </c>
+      <c r="E41" t="s">
+        <v>190</v>
+      </c>
+      <c r="H41" t="s">
+        <v>224</v>
+      </c>
+      <c r="I41" t="s">
+        <v>225</v>
+      </c>
+      <c r="J41" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I42" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>228</v>
+      </c>
+      <c r="B43">
+        <v>101</v>
+      </c>
+      <c r="C43" t="s">
+        <v>116</v>
+      </c>
+      <c r="D43" t="s">
+        <v>117</v>
+      </c>
+      <c r="E43" t="s">
+        <v>190</v>
+      </c>
+      <c r="H43" t="s">
+        <v>229</v>
+      </c>
+      <c r="I43" t="s">
+        <v>230</v>
+      </c>
+      <c r="J43" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I44" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>232</v>
+      </c>
+      <c r="B45">
+        <v>1010</v>
+      </c>
+      <c r="C45" t="s">
+        <v>116</v>
+      </c>
+      <c r="D45" t="s">
+        <v>117</v>
+      </c>
+      <c r="E45" t="s">
+        <v>190</v>
+      </c>
+      <c r="H45" t="s">
+        <v>233</v>
+      </c>
+      <c r="I45" t="s">
+        <v>234</v>
+      </c>
+      <c r="J45" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I46" t="s">
+        <v>154</v>
+      </c>
+      <c r="J46" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I47" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>237</v>
+      </c>
+      <c r="B48">
+        <v>1011</v>
+      </c>
+      <c r="C48" t="s">
+        <v>116</v>
+      </c>
+      <c r="D48" t="s">
+        <v>117</v>
+      </c>
+      <c r="E48" t="s">
+        <v>190</v>
+      </c>
+      <c r="H48" t="s">
+        <v>238</v>
+      </c>
+      <c r="I48" t="s">
+        <v>234</v>
+      </c>
+      <c r="J48" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I49" t="s">
+        <v>154</v>
+      </c>
+      <c r="J49" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I50" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>241</v>
+      </c>
+      <c r="B51" t="s">
+        <v>115</v>
+      </c>
+      <c r="C51" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>243</v>
+      </c>
+      <c r="B52">
+        <v>10</v>
+      </c>
+      <c r="C52" t="s">
+        <v>242</v>
+      </c>
+      <c r="H52" t="s">
+        <v>244</v>
+      </c>
+      <c r="I52" t="s">
+        <v>245</v>
+      </c>
+      <c r="J52" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>247</v>
+      </c>
+      <c r="B53">
+        <v>11</v>
+      </c>
+      <c r="C53" t="s">
+        <v>242</v>
+      </c>
+      <c r="H53" t="s">
+        <v>248</v>
+      </c>
+      <c r="I53" t="s">
+        <v>249</v>
+      </c>
+      <c r="J53" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I54" t="s">
+        <v>245</v>
+      </c>
+      <c r="J54" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>

--- a/document/31条指令操作时间表.xlsx
+++ b/document/31条指令操作时间表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\cpu31\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76029C97-E021-4FCA-A4BC-E1651EED22E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A809FE99-1262-4D9C-9EC0-AD218CD8E2F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" activeTab="1" xr2:uid="{7CAB809C-24DC-4464-89F1-2B336DD29E79}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{7CAB809C-24DC-4464-89F1-2B336DD29E79}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1303,31 +1303,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D1E9F4E-F59F-4F12-8152-A77F37B0468B}">
   <dimension ref="A2:T51"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A53" sqref="A53:J106"/>
+      <selection pane="topRight" activeCell="S51" sqref="S51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="59.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.77734375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.77734375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="4.44140625" bestFit="1" customWidth="1"/>
     <col min="21" max="32" width="7.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1556,7 +1554,7 @@
         <v>60</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>62</v>
@@ -1618,7 +1616,7 @@
         <v>60</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>62</v>
@@ -1680,7 +1678,7 @@
         <v>60</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>60</v>
@@ -1742,7 +1740,7 @@
         <v>60</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>62</v>
@@ -1804,7 +1802,7 @@
         <v>60</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>62</v>
@@ -1866,7 +1864,7 @@
         <v>60</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>62</v>
@@ -1928,7 +1926,7 @@
         <v>60</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>62</v>
@@ -1990,7 +1988,7 @@
         <v>60</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>62</v>
@@ -2052,7 +2050,7 @@
         <v>60</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>62</v>
@@ -2114,7 +2112,7 @@
         <v>60</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>62</v>
@@ -2176,7 +2174,7 @@
         <v>60</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="L31" s="2" t="s">
         <v>62</v>
@@ -2197,7 +2195,7 @@
         <v>62</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="S31" s="2" t="s">
         <v>60</v>
@@ -2238,7 +2236,7 @@
         <v>60</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="L32" s="2" t="s">
         <v>62</v>
@@ -2259,7 +2257,7 @@
         <v>62</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="S32" s="2" t="s">
         <v>60</v>
@@ -2300,7 +2298,7 @@
         <v>60</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="L33" s="2" t="s">
         <v>62</v>
@@ -2321,7 +2319,7 @@
         <v>62</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="S33" s="2" t="s">
         <v>60</v>
@@ -2362,7 +2360,7 @@
         <v>60</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L34" s="2" t="s">
         <v>62</v>
@@ -2424,7 +2422,7 @@
         <v>60</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L35" s="2" t="s">
         <v>62</v>
@@ -2486,7 +2484,7 @@
         <v>60</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L36" s="2" t="s">
         <v>62</v>
@@ -2548,7 +2546,7 @@
         <v>60</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L37" s="2" t="s">
         <v>62</v>
@@ -2610,7 +2608,7 @@
         <v>60</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L38" s="2" t="s">
         <v>62</v>
@@ -2631,10 +2629,10 @@
         <v>62</v>
       </c>
       <c r="R38" s="2" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="T38" s="2" t="s">
         <v>61</v>
@@ -2666,13 +2664,13 @@
         <v>1</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>60</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L39" s="2" t="s">
         <v>62</v>
@@ -2693,10 +2691,10 @@
         <v>62</v>
       </c>
       <c r="R39" s="2" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="S39" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="T39" s="2" t="s">
         <v>61</v>
@@ -2728,13 +2726,13 @@
         <v>1</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>60</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L40" s="2" t="s">
         <v>62</v>
@@ -2755,10 +2753,10 @@
         <v>62</v>
       </c>
       <c r="R40" s="2" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="S40" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="T40" s="2" t="s">
         <v>61</v>
@@ -2790,13 +2788,13 @@
         <v>1</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>60</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L41" s="2" t="s">
         <v>62</v>
@@ -2817,10 +2815,10 @@
         <v>62</v>
       </c>
       <c r="R41" s="2" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="S41" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="T41" s="2" t="s">
         <v>61</v>
@@ -2852,13 +2850,13 @@
         <v>1</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>60</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L42" s="2" t="s">
         <v>62</v>
@@ -2879,10 +2877,10 @@
         <v>62</v>
       </c>
       <c r="R42" s="2" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="S42" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="T42" s="2" t="s">
         <v>61</v>
@@ -2908,7 +2906,7 @@
         <v>1</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H43" s="2">
         <v>1</v>
@@ -2920,7 +2918,7 @@
         <v>67</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L43" s="2" t="s">
         <v>64</v>
@@ -2982,7 +2980,7 @@
         <v>60</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L44" s="2" t="s">
         <v>64</v>
@@ -3044,7 +3042,7 @@
         <v>60</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L45" s="2" t="s">
         <v>62</v>
@@ -3065,7 +3063,7 @@
         <v>64</v>
       </c>
       <c r="R45" s="2" t="s">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="S45" s="2" t="s">
         <v>60</v>
@@ -3106,7 +3104,7 @@
         <v>60</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L46" s="2" t="s">
         <v>62</v>
@@ -3127,7 +3125,7 @@
         <v>64</v>
       </c>
       <c r="R46" s="2" t="s">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="S46" s="2" t="s">
         <v>60</v>
@@ -3168,7 +3166,7 @@
         <v>60</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L47" s="2" t="s">
         <v>62</v>
@@ -3230,7 +3228,7 @@
         <v>60</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L48" s="2" t="s">
         <v>62</v>
@@ -3292,7 +3290,7 @@
         <v>60</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L49" s="2" t="s">
         <v>62</v>
@@ -3354,7 +3352,7 @@
         <v>60</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L50" s="2" t="s">
         <v>62</v>
@@ -3416,7 +3414,7 @@
         <v>66</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L51" s="2" t="s">
         <v>62</v>
@@ -3456,8 +3454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CED34C3-CDE4-49EE-8A91-448A4912C472}">
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/document/31条指令操作时间表.xlsx
+++ b/document/31条指令操作时间表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\cpu31\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A809FE99-1262-4D9C-9EC0-AD218CD8E2F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{874BFC19-E205-4946-A611-445D7A853994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{7CAB809C-24DC-4464-89F1-2B336DD29E79}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" activeTab="1" xr2:uid="{7CAB809C-24DC-4464-89F1-2B336DD29E79}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="241">
   <si>
     <t>cpu指令集</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -594,15 +594,6 @@
     <t> slt $1,$2,$3</t>
   </si>
   <si>
-    <t> if($2&lt;$3) </t>
-  </si>
-  <si>
-    <t>  $1=1 else</t>
-  </si>
-  <si>
-    <t>   $1=0</t>
-  </si>
-  <si>
     <t> if (rs &lt; rt) rd=1 else rd=0 ；其中rs＝$2，rt=$3, rd=$1</t>
   </si>
   <si>
@@ -612,9 +603,6 @@
     <t> sltu $1,$2,$3</t>
   </si>
   <si>
-    <t>  (无符号数）</t>
-  </si>
-  <si>
     <t>sll</t>
   </si>
   <si>
@@ -624,12 +612,6 @@
     <t> $1=$2&lt;&lt;10</t>
   </si>
   <si>
-    <t> rd &lt;- rt &lt;&lt; shamt  ；shamt存放移位的位数，</t>
-  </si>
-  <si>
-    <t>  也就是指令中的立即数，其中rt=$2, rd=$1</t>
-  </si>
-  <si>
     <t>srl</t>
   </si>
   <si>
@@ -648,12 +630,6 @@
     <t> sra $1,$2,10</t>
   </si>
   <si>
-    <t> rd &lt;- rt &gt;&gt; shamt  ；(arithmetic) 注意符号位保留</t>
-  </si>
-  <si>
-    <t> 其中rt=$2, rd=$1</t>
-  </si>
-  <si>
     <t>sllv</t>
   </si>
   <si>
@@ -684,12 +660,6 @@
     <t> srav $1,$2,$3</t>
   </si>
   <si>
-    <t> rd &lt;- rt &gt;&gt; rs  ；(arithmetic) 注意符号位保留</t>
-  </si>
-  <si>
-    <t> 其中rs＝$3，rt=$2, rd=$1</t>
-  </si>
-  <si>
     <t>jr</t>
   </si>
   <si>
@@ -768,24 +738,12 @@
     <t> $1=100*65536</t>
   </si>
   <si>
-    <t> rt &lt;- immediate*65536 ；将16位立即数放到目标寄存器高16</t>
-  </si>
-  <si>
-    <t>         位，目标寄存器的低16位填0</t>
-  </si>
-  <si>
     <t>lw</t>
   </si>
   <si>
     <t> lw $1,10($2)</t>
   </si>
   <si>
-    <t> $1=memory[$2</t>
-  </si>
-  <si>
-    <t> +10]</t>
-  </si>
-  <si>
     <t> rt &lt;- memory[rs + (sign-extend)immediate] ；rt=$1,rs=$2</t>
   </si>
   <si>
@@ -795,12 +753,6 @@
     <t> sw $1,10($2)</t>
   </si>
   <si>
-    <t> memory[$2+10]</t>
-  </si>
-  <si>
-    <t> =$1</t>
-  </si>
-  <si>
     <t> memory[rs + (sign-extend)immediate] &lt;- rt ；rt=$1,rs=$2</t>
   </si>
   <si>
@@ -810,12 +762,6 @@
     <t> beq $1,$2,10</t>
   </si>
   <si>
-    <t> if($1==$2) </t>
-  </si>
-  <si>
-    <t> goto PC+4+40</t>
-  </si>
-  <si>
     <t> if (rs == rt) PC &lt;- PC+4 + (sign-extend)immediate&lt;&lt;2 </t>
   </si>
   <si>
@@ -825,9 +771,6 @@
     <t> bne $1,$2,10</t>
   </si>
   <si>
-    <t> if($1!=$2)</t>
-  </si>
-  <si>
     <t> if (rs != rt) PC &lt;- PC+4 + (sign-extend)immediate&lt;&lt;2 </t>
   </si>
   <si>
@@ -837,27 +780,12 @@
     <t> slti $1,$2,10</t>
   </si>
   <si>
-    <t> if($2&lt;10) </t>
-  </si>
-  <si>
-    <t> if (rs &lt;(sign-extend)immediate) rt=1 else rt=0 ；</t>
-  </si>
-  <si>
-    <t>   其中rs＝$2，rt=$1</t>
-  </si>
-  <si>
     <t>sltiu</t>
   </si>
   <si>
     <t> sltiu $1,$2,10</t>
   </si>
   <si>
-    <t> if (rs &lt;(zero-extend)immediate) rt=1 else rt=0 ；</t>
-  </si>
-  <si>
-    <t>  其中rs＝$2，rt=$1</t>
-  </si>
-  <si>
     <t>J-type</t>
   </si>
   <si>
@@ -882,13 +810,68 @@
     <t> jal 10000</t>
   </si>
   <si>
-    <t> $31&lt;-PC+4;</t>
-  </si>
-  <si>
-    <t> $31&lt;-PC+4；PC &lt;- (PC+4)[31..28],address,0,0</t>
-  </si>
-  <si>
-    <t>   ；address=10000/4</t>
+    <t> if($2&lt;$3)   $1=1 else    $1=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> if (rs &lt; rt) rd=1 else rd=0 ；其中rs＝$2，rt=$3, rd=$1  (无符号数）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> rd &lt;- rt &lt;&lt; shamt  ；shamt存放移位的位数，也就是指令中的立即数，其中rt=$2, rd=$1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> rd &lt;- rt &gt;&gt; shamt  ；(arithmetic) 注意符号位保留， 其中rt=$2, rd=$1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> rd &lt;- rt &gt;&gt; rs  ；(arithmetic) 注意符号位保留 其中rs＝$3，rt=$2, rd=$1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> rt &lt;- immediate*65536 ；将16位立即数放到目标寄存器高16位，目标寄存器的低16位填0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> $1=memory[$2+10]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> memory[$2+10]=$1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> if($1==$2)  goto PC+4+40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> if($1!=$2) goto PC+4+40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> if($2&lt;10) $1=1 else   $1=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> if (rs &lt;(sign-extend)immediate) rt=1 else rt=0 ；   其中rs＝$2，rt=$1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> if($2&lt;10)   $1=1 else   $1=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> if (rs &lt;(zero-extend)immediate) rt=1 else rt=0 ；  其中rs＝$2，rt=$1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> $31&lt;-PC+4; goto 10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> $31&lt;-PC+4；PC &lt;- (PC+4)[31..28],address,0,0   ；address=10000/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1303,9 +1286,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D1E9F4E-F59F-4F12-8152-A77F37B0468B}">
   <dimension ref="A2:T51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="S51" sqref="S51"/>
+      <selection pane="topRight" activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3452,10 +3435,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CED34C3-CDE4-49EE-8A91-448A4912C472}">
-  <dimension ref="A1:J54"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3822,31 +3805,85 @@
         <v>152</v>
       </c>
       <c r="I13" t="s">
+        <v>225</v>
+      </c>
+      <c r="J13" t="s">
         <v>153</v>
       </c>
-      <c r="J13" t="s">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>154</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" t="s">
+        <v>117</v>
+      </c>
+      <c r="E14" t="s">
+        <v>118</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>101011</v>
+      </c>
+      <c r="H14" t="s">
+        <v>155</v>
+      </c>
+      <c r="I14" t="s">
+        <v>225</v>
+      </c>
+      <c r="J14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I14" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>117</v>
+      </c>
+      <c r="E15" t="s">
+        <v>118</v>
+      </c>
+      <c r="F15" t="s">
+        <v>119</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>157</v>
+      </c>
       <c r="I15" t="s">
-        <v>155</v>
+        <v>158</v>
+      </c>
+      <c r="J15" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
-      <c r="C16" t="s">
-        <v>116</v>
+      <c r="C16">
+        <v>0</v>
       </c>
       <c r="D16" t="s">
         <v>117</v>
@@ -3854,44 +3891,95 @@
       <c r="E16" t="s">
         <v>118</v>
       </c>
-      <c r="F16">
+      <c r="F16" t="s">
+        <v>119</v>
+      </c>
+      <c r="G16">
+        <v>10</v>
+      </c>
+      <c r="H16" t="s">
+        <v>160</v>
+      </c>
+      <c r="I16" t="s">
+        <v>161</v>
+      </c>
+      <c r="J16" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>163</v>
+      </c>
+      <c r="B17">
         <v>0</v>
       </c>
-      <c r="G16">
-        <v>101011</v>
-      </c>
-      <c r="H16" t="s">
-        <v>158</v>
-      </c>
-      <c r="I16" t="s">
-        <v>153</v>
-      </c>
-      <c r="J16" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>117</v>
+      </c>
+      <c r="E17" t="s">
+        <v>118</v>
+      </c>
+      <c r="F17" t="s">
+        <v>119</v>
+      </c>
+      <c r="G17">
+        <v>11</v>
+      </c>
+      <c r="H17" t="s">
+        <v>164</v>
+      </c>
       <c r="I17" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="J17" t="s">
-        <v>159</v>
+        <v>228</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>165</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>116</v>
+      </c>
+      <c r="D18" t="s">
+        <v>117</v>
+      </c>
+      <c r="E18" t="s">
+        <v>118</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>100</v>
+      </c>
+      <c r="H18" t="s">
+        <v>166</v>
+      </c>
       <c r="I18" t="s">
-        <v>155</v>
+        <v>167</v>
+      </c>
+      <c r="J18" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-      <c r="C19">
-        <v>0</v>
+      <c r="C19" t="s">
+        <v>116</v>
       </c>
       <c r="D19" t="s">
         <v>117</v>
@@ -3899,102 +3987,135 @@
       <c r="E19" t="s">
         <v>118</v>
       </c>
-      <c r="F19" t="s">
-        <v>119</v>
+      <c r="F19">
+        <v>0</v>
       </c>
       <c r="G19">
+        <v>110</v>
+      </c>
+      <c r="H19" t="s">
+        <v>170</v>
+      </c>
+      <c r="I19" t="s">
+        <v>171</v>
+      </c>
+      <c r="J19" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>173</v>
+      </c>
+      <c r="B20">
         <v>0</v>
       </c>
-      <c r="H19" t="s">
-        <v>161</v>
-      </c>
-      <c r="I19" t="s">
-        <v>162</v>
-      </c>
-      <c r="J19" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>116</v>
+      </c>
+      <c r="D20" t="s">
+        <v>117</v>
+      </c>
+      <c r="E20" t="s">
+        <v>118</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>111</v>
+      </c>
+      <c r="H20" t="s">
+        <v>174</v>
+      </c>
+      <c r="I20" t="s">
+        <v>171</v>
+      </c>
       <c r="J20" t="s">
-        <v>164</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="s">
+        <v>116</v>
+      </c>
+      <c r="D21">
         <v>0</v>
       </c>
-      <c r="D21" t="s">
-        <v>117</v>
-      </c>
-      <c r="E21" t="s">
-        <v>118</v>
-      </c>
-      <c r="F21" t="s">
-        <v>119</v>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="H21" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="I21" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="J21" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>169</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
+        <v>179</v>
+      </c>
+      <c r="B22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C22" t="s">
+        <v>116</v>
       </c>
       <c r="D22" t="s">
         <v>117</v>
       </c>
       <c r="E22" t="s">
-        <v>118</v>
-      </c>
-      <c r="F22" t="s">
-        <v>119</v>
-      </c>
-      <c r="G22">
-        <v>11</v>
-      </c>
-      <c r="H22" t="s">
-        <v>170</v>
-      </c>
-      <c r="I22" t="s">
-        <v>167</v>
-      </c>
-      <c r="J22" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>181</v>
+      </c>
+      <c r="B23">
+        <v>1000</v>
+      </c>
+      <c r="C23" t="s">
+        <v>116</v>
+      </c>
+      <c r="D23" t="s">
+        <v>117</v>
+      </c>
+      <c r="E23" t="s">
+        <v>180</v>
+      </c>
+      <c r="H23" t="s">
+        <v>182</v>
+      </c>
+      <c r="I23" t="s">
+        <v>183</v>
+      </c>
       <c r="J23" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="C24" t="s">
         <v>116</v>
@@ -4003,30 +4124,24 @@
         <v>117</v>
       </c>
       <c r="E24" t="s">
-        <v>118</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="H24" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="I24" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="J24" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="C25" t="s">
         <v>116</v>
@@ -4035,30 +4150,24 @@
         <v>117</v>
       </c>
       <c r="E25" t="s">
-        <v>118</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="H25" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="I25" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="J25" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>1101</v>
       </c>
       <c r="C26" t="s">
         <v>116</v>
@@ -4067,67 +4176,76 @@
         <v>117</v>
       </c>
       <c r="E26" t="s">
-        <v>118</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>111</v>
+        <v>180</v>
       </c>
       <c r="H26" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="I26" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="J26" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>195</v>
+      </c>
+      <c r="B27">
+        <v>1110</v>
+      </c>
+      <c r="C27" t="s">
+        <v>116</v>
+      </c>
+      <c r="D27" t="s">
+        <v>117</v>
+      </c>
+      <c r="E27" t="s">
+        <v>180</v>
+      </c>
+      <c r="H27" t="s">
+        <v>189</v>
+      </c>
+      <c r="I27" t="s">
+        <v>196</v>
+      </c>
       <c r="J27" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="B28">
+        <v>1111</v>
+      </c>
+      <c r="C28">
         <v>0</v>
       </c>
-      <c r="C28" t="s">
-        <v>116</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>1000</v>
+      <c r="D28" t="s">
+        <v>117</v>
+      </c>
+      <c r="E28" t="s">
+        <v>180</v>
       </c>
       <c r="H28" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="I28" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="J28" t="s">
-        <v>188</v>
+        <v>230</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>189</v>
-      </c>
-      <c r="B29" t="s">
-        <v>115</v>
+        <v>201</v>
+      </c>
+      <c r="B29">
+        <v>100011</v>
       </c>
       <c r="C29" t="s">
         <v>116</v>
@@ -4136,15 +4254,24 @@
         <v>117</v>
       </c>
       <c r="E29" t="s">
-        <v>190</v>
+        <v>180</v>
+      </c>
+      <c r="H29" t="s">
+        <v>202</v>
+      </c>
+      <c r="I29" t="s">
+        <v>231</v>
+      </c>
+      <c r="J29" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="B30">
-        <v>1000</v>
+        <v>101011</v>
       </c>
       <c r="C30" t="s">
         <v>116</v>
@@ -4153,24 +4280,24 @@
         <v>117</v>
       </c>
       <c r="E30" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="H30" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="I30" t="s">
-        <v>193</v>
+        <v>232</v>
       </c>
       <c r="J30" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="B31">
-        <v>1001</v>
+        <v>100</v>
       </c>
       <c r="C31" t="s">
         <v>116</v>
@@ -4179,24 +4306,24 @@
         <v>117</v>
       </c>
       <c r="E31" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="H31" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="I31" t="s">
-        <v>193</v>
+        <v>233</v>
       </c>
       <c r="J31" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="B32">
-        <v>1100</v>
+        <v>101</v>
       </c>
       <c r="C32" t="s">
         <v>116</v>
@@ -4205,24 +4332,24 @@
         <v>117</v>
       </c>
       <c r="E32" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="H32" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="I32" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="J32" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="B33">
-        <v>1101</v>
+        <v>1010</v>
       </c>
       <c r="C33" t="s">
         <v>116</v>
@@ -4231,24 +4358,24 @@
         <v>117</v>
       </c>
       <c r="E33" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="H33" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="I33" t="s">
-        <v>203</v>
+        <v>235</v>
       </c>
       <c r="J33" t="s">
-        <v>204</v>
+        <v>236</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="B34">
-        <v>1110</v>
+        <v>1011</v>
       </c>
       <c r="C34" t="s">
         <v>116</v>
@@ -4257,308 +4384,67 @@
         <v>117</v>
       </c>
       <c r="E34" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="H34" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="I34" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="J34" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>208</v>
-      </c>
-      <c r="B35">
-        <v>1111</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35" t="s">
-        <v>117</v>
-      </c>
-      <c r="E35" t="s">
-        <v>190</v>
-      </c>
-      <c r="H35" t="s">
-        <v>209</v>
-      </c>
-      <c r="I35" t="s">
-        <v>210</v>
-      </c>
-      <c r="J35" t="s">
-        <v>211</v>
+        <v>217</v>
+      </c>
+      <c r="B35" t="s">
+        <v>115</v>
+      </c>
+      <c r="C35" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>219</v>
+      </c>
+      <c r="B36">
+        <v>10</v>
+      </c>
+      <c r="C36" t="s">
+        <v>218</v>
+      </c>
+      <c r="H36" t="s">
+        <v>220</v>
+      </c>
+      <c r="I36" t="s">
+        <v>221</v>
+      </c>
       <c r="J36" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="B37">
-        <v>100011</v>
+        <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>116</v>
-      </c>
-      <c r="D37" t="s">
-        <v>117</v>
-      </c>
-      <c r="E37" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="H37" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="I37" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="J37" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I38" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>218</v>
-      </c>
-      <c r="B39">
-        <v>101011</v>
-      </c>
-      <c r="C39" t="s">
-        <v>116</v>
-      </c>
-      <c r="D39" t="s">
-        <v>117</v>
-      </c>
-      <c r="E39" t="s">
-        <v>190</v>
-      </c>
-      <c r="H39" t="s">
-        <v>219</v>
-      </c>
-      <c r="I39" t="s">
-        <v>220</v>
-      </c>
-      <c r="J39" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I40" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>223</v>
-      </c>
-      <c r="B41">
-        <v>100</v>
-      </c>
-      <c r="C41" t="s">
-        <v>116</v>
-      </c>
-      <c r="D41" t="s">
-        <v>117</v>
-      </c>
-      <c r="E41" t="s">
-        <v>190</v>
-      </c>
-      <c r="H41" t="s">
-        <v>224</v>
-      </c>
-      <c r="I41" t="s">
-        <v>225</v>
-      </c>
-      <c r="J41" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I42" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>228</v>
-      </c>
-      <c r="B43">
-        <v>101</v>
-      </c>
-      <c r="C43" t="s">
-        <v>116</v>
-      </c>
-      <c r="D43" t="s">
-        <v>117</v>
-      </c>
-      <c r="E43" t="s">
-        <v>190</v>
-      </c>
-      <c r="H43" t="s">
-        <v>229</v>
-      </c>
-      <c r="I43" t="s">
-        <v>230</v>
-      </c>
-      <c r="J43" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I44" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>232</v>
-      </c>
-      <c r="B45">
-        <v>1010</v>
-      </c>
-      <c r="C45" t="s">
-        <v>116</v>
-      </c>
-      <c r="D45" t="s">
-        <v>117</v>
-      </c>
-      <c r="E45" t="s">
-        <v>190</v>
-      </c>
-      <c r="H45" t="s">
-        <v>233</v>
-      </c>
-      <c r="I45" t="s">
-        <v>234</v>
-      </c>
-      <c r="J45" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I46" t="s">
-        <v>154</v>
-      </c>
-      <c r="J46" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I47" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>237</v>
-      </c>
-      <c r="B48">
-        <v>1011</v>
-      </c>
-      <c r="C48" t="s">
-        <v>116</v>
-      </c>
-      <c r="D48" t="s">
-        <v>117</v>
-      </c>
-      <c r="E48" t="s">
-        <v>190</v>
-      </c>
-      <c r="H48" t="s">
-        <v>238</v>
-      </c>
-      <c r="I48" t="s">
-        <v>234</v>
-      </c>
-      <c r="J48" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I49" t="s">
-        <v>154</v>
-      </c>
-      <c r="J49" t="s">
         <v>240</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I50" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>241</v>
-      </c>
-      <c r="B51" t="s">
-        <v>115</v>
-      </c>
-      <c r="C51" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>243</v>
-      </c>
-      <c r="B52">
-        <v>10</v>
-      </c>
-      <c r="C52" t="s">
-        <v>242</v>
-      </c>
-      <c r="H52" t="s">
-        <v>244</v>
-      </c>
-      <c r="I52" t="s">
-        <v>245</v>
-      </c>
-      <c r="J52" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>247</v>
-      </c>
-      <c r="B53">
-        <v>11</v>
-      </c>
-      <c r="C53" t="s">
-        <v>242</v>
-      </c>
-      <c r="H53" t="s">
-        <v>248</v>
-      </c>
-      <c r="I53" t="s">
-        <v>249</v>
-      </c>
-      <c r="J53" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I54" t="s">
-        <v>245</v>
-      </c>
-      <c r="J54" t="s">
-        <v>251</v>
       </c>
     </row>
   </sheetData>

--- a/document/31条指令操作时间表.xlsx
+++ b/document/31条指令操作时间表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\cpu31\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{874BFC19-E205-4946-A611-445D7A853994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB44C20-A195-460F-A37F-73BB0745FE97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" activeTab="1" xr2:uid="{7CAB809C-24DC-4464-89F1-2B336DD29E79}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{7CAB809C-24DC-4464-89F1-2B336DD29E79}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1286,9 +1286,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D1E9F4E-F59F-4F12-8152-A77F37B0468B}">
   <dimension ref="A2:T51"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A43" sqref="A43"/>
+      <selection pane="topRight" activeCell="A20" sqref="A20:T51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1664,7 +1664,7 @@
         <v>62</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M23" s="2" t="s">
         <v>61</v>
@@ -3437,8 +3437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CED34C3-CDE4-49EE-8A91-448A4912C472}">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3451,8 +3451,8 @@
     <col min="6" max="6" width="6.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="58.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="85.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
